--- a/examples/city/city.xlsx
+++ b/examples/city/city.xlsx
@@ -424,22 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>city__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>city__webpage</t>
+          <t>webpage</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>city__wikipedia_url</t>
+          <t>wikipedia_url</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>city__Population</t>
+          <t>Population</t>
         </is>
       </c>
     </row>
